--- a/13-1/ER図.xlsx
+++ b/13-1/ER図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LetsEngineer\curriculum\13-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BC286D-655E-44A2-9581-997C64C0CA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CDCDB-BD66-4C78-A3A5-3A6F83EF18A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20760" windowHeight="14670" xr2:uid="{0D299882-1FC9-470F-AEB0-5EBFD5EC0B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D299882-1FC9-470F-AEB0-5EBFD5EC0B01}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
@@ -95,20 +95,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6820852" cy="4039164"/>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96248</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114930</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A973259C-60C2-48C5-879D-9117BA416709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE86467-32DB-8EE5-6F51-06E574CE44FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -124,8 +129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="323850"/>
-          <a:ext cx="6820852" cy="4039164"/>
+          <a:off x="609600" y="419100"/>
+          <a:ext cx="7154273" cy="4515480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -133,7 +138,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -440,7 +445,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
